--- a/media/CLIENTES_SEGUROS.xlsx
+++ b/media/CLIENTES_SEGUROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myhome/Desktop/PROG/ControleSeguros/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF2C52-542F-0640-B67E-66B115C3C010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DAB5B-92CA-C842-92F0-857D0C1F7CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2233,7 +2233,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
